--- a/Metadata/Nuccio_CAZyme_table.xlsx
+++ b/Metadata/Nuccio_CAZyme_table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LMAOXD\Documents\UCI undergrad\Bio-ESS 199\Microbial-enzyme-activity-in-leaf-litter\Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2D72F2-11EB-43E8-AAF0-ED28B0FADF2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAB3662-2581-4852-A5FE-88F87397B89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,15 +30,51 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={AE345370-1EAF-497F-82C9-299AAFCF81DE}</author>
     <author>tc={4E28FCCC-4155-435A-8FE4-87F5B9FAD985}</author>
+    <author>tc={4AA6FA3B-187C-4717-923C-DEFEB4A6F0BC}</author>
+    <author>tc={9A5B1963-8AC5-484D-8923-68CE27E0E9F4}</author>
+    <author>tc={7D5D69C8-28C8-4429-BEC3-756ADC9F983B}</author>
   </authors>
   <commentList>
-    <comment ref="C45" authorId="0" shapeId="0" xr:uid="{4E28FCCC-4155-435A-8FE4-87F5B9FAD985}">
+    <comment ref="B25" authorId="0" shapeId="0" xr:uid="{AE345370-1EAF-497F-82C9-299AAFCF81DE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The German et al 2011 paper uses this EC number to refer to cellobiohydrolase (CBH)</t>
+      </text>
+    </comment>
+    <comment ref="C45" authorId="1" shapeId="0" xr:uid="{4E28FCCC-4155-435A-8FE4-87F5B9FAD985}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     Polyphenol oxidase belongs to the AA1 family, which isn't counted in for lignin-degrading enzyme gene proportions</t>
+      </text>
+    </comment>
+    <comment ref="C59" authorId="2" shapeId="0" xr:uid="{4AA6FA3B-187C-4717-923C-DEFEB4A6F0BC}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    In his genes per million reads dataset, Ashish counted this gene family and this enzyme (BG) as part of cellulose</t>
+      </text>
+    </comment>
+    <comment ref="B63" authorId="3" shapeId="0" xr:uid="{9A5B1963-8AC5-484D-8923-68CE27E0E9F4}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Mysteriously, this gene family, which includes BX which degrades hemicellulose, is assigned to cellulose in Ashish's genes per million reads dataset</t>
+      </text>
+    </comment>
+    <comment ref="B66" authorId="4" shapeId="0" xr:uid="{7D5D69C8-28C8-4429-BEC3-756ADC9F983B}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Mysteriously, this gene family, which includes BX which degrades hemicellulose, is assigned to cellulose in Ashish's genes per million reads dataset</t>
       </text>
     </comment>
   </commentList>
@@ -1798,6 +1834,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1805,10 +1845,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2030,8 +2066,20 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B25" dT="2024-05-13T06:23:42.23" personId="{3795F689-683C-40C0-BA59-7D50F4E6F6F5}" id="{AE345370-1EAF-497F-82C9-299AAFCF81DE}">
+    <text>The German et al 2011 paper uses this EC number to refer to cellobiohydrolase (CBH)</text>
+  </threadedComment>
   <threadedComment ref="C45" dT="2024-02-01T16:57:29.80" personId="{3795F689-683C-40C0-BA59-7D50F4E6F6F5}" id="{4E28FCCC-4155-435A-8FE4-87F5B9FAD985}">
     <text>Polyphenol oxidase belongs to the AA1 family, which isn't counted in for lignin-degrading enzyme gene proportions</text>
+  </threadedComment>
+  <threadedComment ref="C59" dT="2024-05-13T06:25:49.53" personId="{3795F689-683C-40C0-BA59-7D50F4E6F6F5}" id="{4AA6FA3B-187C-4717-923C-DEFEB4A6F0BC}">
+    <text>In his genes per million reads dataset, Ashish counted this gene family and this enzyme (BG) as part of cellulose</text>
+  </threadedComment>
+  <threadedComment ref="B63" dT="2024-05-13T06:27:36.33" personId="{3795F689-683C-40C0-BA59-7D50F4E6F6F5}" id="{9A5B1963-8AC5-484D-8923-68CE27E0E9F4}">
+    <text>Mysteriously, this gene family, which includes BX which degrades hemicellulose, is assigned to cellulose in Ashish's genes per million reads dataset</text>
+  </threadedComment>
+  <threadedComment ref="B66" dT="2024-05-13T06:28:29.44" personId="{3795F689-683C-40C0-BA59-7D50F4E6F6F5}" id="{7D5D69C8-28C8-4429-BEC3-756ADC9F983B}">
+    <text>Mysteriously, this gene family, which includes BX which degrades hemicellulose, is assigned to cellulose in Ashish's genes per million reads dataset</text>
   </threadedComment>
 </ThreadedComments>
 </file>
@@ -2040,8 +2088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2233,16 +2281,16 @@
       <c r="Z6" s="2"/>
     </row>
     <row r="7" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="26" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="2"/>
@@ -2269,12 +2317,12 @@
       <c r="Z7" s="2"/>
     </row>
     <row r="8" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
       <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="25"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -6765,12 +6813,12 @@
       <c r="Z133" s="2"/>
     </row>
     <row r="134" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="27" t="s">
+      <c r="A134" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="B134" s="28"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="28"/>
+      <c r="B134" s="25"/>
+      <c r="C134" s="25"/>
+      <c r="D134" s="25"/>
       <c r="E134" s="2"/>
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
@@ -6795,12 +6843,12 @@
       <c r="Z134" s="2"/>
     </row>
     <row r="135" spans="1:26" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="27" t="s">
+      <c r="A135" s="24" t="s">
         <v>179</v>
       </c>
-      <c r="B135" s="28"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
+      <c r="B135" s="25"/>
+      <c r="C135" s="25"/>
+      <c r="D135" s="25"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
@@ -6825,12 +6873,12 @@
       <c r="Z135" s="2"/>
     </row>
     <row r="136" spans="1:26" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="27" t="s">
+      <c r="A136" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="B136" s="28"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="28"/>
+      <c r="B136" s="25"/>
+      <c r="C136" s="25"/>
+      <c r="D136" s="25"/>
       <c r="E136" s="2"/>
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
@@ -6855,12 +6903,12 @@
       <c r="Z136" s="2"/>
     </row>
     <row r="137" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="27" t="s">
+      <c r="A137" s="24" t="s">
         <v>181</v>
       </c>
-      <c r="B137" s="28"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="28"/>
+      <c r="B137" s="25"/>
+      <c r="C137" s="25"/>
+      <c r="D137" s="25"/>
       <c r="E137" s="2"/>
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
@@ -6885,12 +6933,12 @@
       <c r="Z137" s="2"/>
     </row>
     <row r="138" spans="1:26" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="27" t="s">
+      <c r="A138" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="B138" s="28"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="28"/>
+      <c r="B138" s="25"/>
+      <c r="C138" s="25"/>
+      <c r="D138" s="25"/>
       <c r="E138" s="2"/>
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
@@ -6915,12 +6963,12 @@
       <c r="Z138" s="2"/>
     </row>
     <row r="139" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="27" t="s">
+      <c r="A139" s="24" t="s">
         <v>183</v>
       </c>
-      <c r="B139" s="28"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="28"/>
+      <c r="B139" s="25"/>
+      <c r="C139" s="25"/>
+      <c r="D139" s="25"/>
       <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
@@ -6945,12 +6993,12 @@
       <c r="Z139" s="2"/>
     </row>
     <row r="140" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="27" t="s">
+      <c r="A140" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="B140" s="28"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="28"/>
+      <c r="B140" s="25"/>
+      <c r="C140" s="25"/>
+      <c r="D140" s="25"/>
       <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
@@ -6975,12 +7023,12 @@
       <c r="Z140" s="2"/>
     </row>
     <row r="141" spans="1:26" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="27" t="s">
+      <c r="A141" s="24" t="s">
         <v>185</v>
       </c>
-      <c r="B141" s="28"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="28"/>
+      <c r="B141" s="25"/>
+      <c r="C141" s="25"/>
+      <c r="D141" s="25"/>
       <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
@@ -7005,12 +7053,12 @@
       <c r="Z141" s="2"/>
     </row>
     <row r="142" spans="1:26" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="27" t="s">
+      <c r="A142" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="B142" s="28"/>
-      <c r="C142" s="28"/>
-      <c r="D142" s="28"/>
+      <c r="B142" s="25"/>
+      <c r="C142" s="25"/>
+      <c r="D142" s="25"/>
       <c r="E142" s="2"/>
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
@@ -7035,12 +7083,12 @@
       <c r="Z142" s="2"/>
     </row>
     <row r="143" spans="1:26" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="27" t="s">
+      <c r="A143" s="24" t="s">
         <v>187</v>
       </c>
-      <c r="B143" s="28"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="28"/>
+      <c r="B143" s="25"/>
+      <c r="C143" s="25"/>
+      <c r="D143" s="25"/>
       <c r="E143" s="2"/>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
@@ -7065,12 +7113,12 @@
       <c r="Z143" s="2"/>
     </row>
     <row r="144" spans="1:26" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="27" t="s">
+      <c r="A144" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="B144" s="28"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="28"/>
+      <c r="B144" s="25"/>
+      <c r="C144" s="25"/>
+      <c r="D144" s="25"/>
       <c r="E144" s="2"/>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
@@ -7095,12 +7143,12 @@
       <c r="Z144" s="2"/>
     </row>
     <row r="145" spans="1:26" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="27" t="s">
+      <c r="A145" s="24" t="s">
         <v>189</v>
       </c>
-      <c r="B145" s="28"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="28"/>
+      <c r="B145" s="25"/>
+      <c r="C145" s="25"/>
+      <c r="D145" s="25"/>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
@@ -7125,12 +7173,12 @@
       <c r="Z145" s="2"/>
     </row>
     <row r="146" spans="1:26" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="27" t="s">
+      <c r="A146" s="24" t="s">
         <v>190</v>
       </c>
-      <c r="B146" s="28"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="28"/>
+      <c r="B146" s="25"/>
+      <c r="C146" s="25"/>
+      <c r="D146" s="25"/>
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2"/>
@@ -7155,12 +7203,12 @@
       <c r="Z146" s="2"/>
     </row>
     <row r="147" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="27" t="s">
+      <c r="A147" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="B147" s="28"/>
-      <c r="C147" s="28"/>
-      <c r="D147" s="28"/>
+      <c r="B147" s="25"/>
+      <c r="C147" s="25"/>
+      <c r="D147" s="25"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
@@ -7185,12 +7233,12 @@
       <c r="Z147" s="2"/>
     </row>
     <row r="148" spans="1:26" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="27" t="s">
+      <c r="A148" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="B148" s="28"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="28"/>
+      <c r="B148" s="25"/>
+      <c r="C148" s="25"/>
+      <c r="D148" s="25"/>
       <c r="E148" s="2"/>
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
@@ -7215,12 +7263,12 @@
       <c r="Z148" s="2"/>
     </row>
     <row r="149" spans="1:26" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="27" t="s">
+      <c r="A149" s="24" t="s">
         <v>193</v>
       </c>
-      <c r="B149" s="28"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="28"/>
+      <c r="B149" s="25"/>
+      <c r="C149" s="25"/>
+      <c r="D149" s="25"/>
       <c r="E149" s="2"/>
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
@@ -31074,6 +31122,16 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A134:D134"/>
+    <mergeCell ref="A135:D135"/>
+    <mergeCell ref="A136:D136"/>
+    <mergeCell ref="A137:D137"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A146:D146"/>
+    <mergeCell ref="A147:D147"/>
     <mergeCell ref="A148:D148"/>
     <mergeCell ref="A149:D149"/>
     <mergeCell ref="A138:D138"/>
@@ -31083,16 +31141,6 @@
     <mergeCell ref="A142:D142"/>
     <mergeCell ref="A143:D143"/>
     <mergeCell ref="A144:D144"/>
-    <mergeCell ref="A136:D136"/>
-    <mergeCell ref="A137:D137"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A146:D146"/>
-    <mergeCell ref="A147:D147"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A134:D134"/>
-    <mergeCell ref="A135:D135"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
